--- a/Results_comparison.xlsx
+++ b/Results_comparison.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Cluster</t>
   </si>
@@ -157,19 +157,60 @@
   </si>
   <si>
     <t>زیر صدارت انسداد ڈینگی کے حوالے</t>
+  </si>
+  <si>
+    <t>اسلام آباد</t>
+  </si>
+  <si>
+    <t>سندھ</t>
+  </si>
+  <si>
+    <t>رواں برس کانگو</t>
+  </si>
+  <si>
+    <t>سری لنکن ٹیم</t>
+  </si>
+  <si>
+    <t>دورہ</t>
+  </si>
+  <si>
+    <t>درمیان</t>
+  </si>
+  <si>
+    <t>ڈپٹی کمشنر</t>
+  </si>
+  <si>
+    <t>فرد</t>
+  </si>
+  <si>
+    <t>کردار ادا</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,8 +233,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,26 +535,28 @@
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -526,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -543,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -560,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -577,7 +624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -594,7 +641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -611,7 +658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -627,8 +674,17 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -645,7 +701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -661,8 +717,17 @@
       <c r="E10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -679,7 +744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -696,7 +761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -712,8 +777,17 @@
       <c r="E13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -732,5 +806,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results_comparison.xlsx
+++ b/Results_comparison.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>Cluster</t>
   </si>
@@ -184,6 +184,81 @@
   </si>
   <si>
     <t>کردار ادا</t>
+  </si>
+  <si>
+    <t>TextRank</t>
+  </si>
+  <si>
+    <t>یورپی یونین یورپی یونین شام</t>
+  </si>
+  <si>
+    <t>سی ڈی سی</t>
+  </si>
+  <si>
+    <t>حکومت پنجاب ڈینگی</t>
+  </si>
+  <si>
+    <t>سی پیک اتھارٹی آرڈیننس</t>
+  </si>
+  <si>
+    <t>حسن داد بٹ چینی سرمایہ</t>
+  </si>
+  <si>
+    <t>ڈینگی مہم بھرپور</t>
+  </si>
+  <si>
+    <t>گورنمنٹ گرلز ڈگری کالج وہائی سکول</t>
+  </si>
+  <si>
+    <t>خواتین کشمیر کمیٹی</t>
+  </si>
+  <si>
+    <t>سری لنکن ٹی ٹونٹی کرکٹ سیریز</t>
+  </si>
+  <si>
+    <t>محکمہ صحت ڈینگی</t>
+  </si>
+  <si>
+    <t>راولپنڈی ڈینگی مریضوں</t>
+  </si>
+  <si>
+    <t>سطحی اجلاس ڈپٹی کمشنر محمد سیف انور</t>
+  </si>
+  <si>
+    <t>ہیلتھ سروسز ڈاکٹر کمالان</t>
+  </si>
+  <si>
+    <t>Topic Rank</t>
+  </si>
+  <si>
+    <t>فوجی کارروائی</t>
+  </si>
+  <si>
+    <t>ڈینگی</t>
+  </si>
+  <si>
+    <t>سی پیک</t>
+  </si>
+  <si>
+    <t>جاری</t>
+  </si>
+  <si>
+    <t>اظہار یکجہتی</t>
+  </si>
+  <si>
+    <t>سری لنکنز</t>
+  </si>
+  <si>
+    <t>صدارت انسداد ڈینگی</t>
+  </si>
+  <si>
+    <t>YAKE</t>
+  </si>
+  <si>
+    <t>شام میں فوجی کارروائی</t>
+  </si>
+  <si>
+    <t>بنائیں ڈی سی لاہو</t>
   </si>
 </sst>
 </file>
@@ -523,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,9 +612,12 @@
     <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,8 +633,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -572,8 +659,17 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -589,8 +685,17 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -606,8 +711,14 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -623,8 +734,14 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -640,8 +757,14 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -657,8 +780,14 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -683,8 +812,14 @@
       <c r="H8" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -700,8 +835,14 @@
       <c r="E9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -726,8 +867,14 @@
       <c r="H10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -743,8 +890,14 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -760,8 +913,14 @@
       <c r="E12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -786,8 +945,14 @@
       <c r="H13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -802,6 +967,12 @@
       </c>
       <c r="E14" t="s">
         <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Results_comparison.xlsx
+++ b/Results_comparison.xlsx
@@ -600,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
